--- a/DataExtraction1/ProIIExtractedFiles/Flash.xlsx
+++ b/DataExtraction1/ProIIExtractedFiles/Flash.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\source\repos\datatransfer-ProII\DataExtraction1\ProIIExtractedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0C6E65D9-EAB2-42FB-BD96-311962F7C94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B99D1C3-CFA2-4675-9F49-1E888518204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E46BF770-3EEF-4FDD-AC28-94CD0923485B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68D2501F-FFAA-4006-BD83-10593C23B485}"/>
   </bookViews>
   <sheets>
     <sheet name="extracted_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
   <si>
     <t>Oid</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>TotalVolume</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>UtilityCO2EmissionRate</t>
@@ -209,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,7 +703,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1077,20 +1080,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F0485E-4F30-4743-94C2-4717AF7303E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E27DB-B56B-4FCA-A1EE-1990B754A4B6}">
   <dimension ref="A1:F724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>217</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>217</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>217</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>217</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>217</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>217</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>217</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>217</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>217</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>217</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>217</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>217</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>217</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>217</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>217</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>217</v>
       </c>
@@ -1352,7 +1356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>217</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>217</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>217</v>
       </c>
@@ -1409,7 +1413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>217</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>217</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>217</v>
       </c>
@@ -1447,7 +1451,7 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E23">
@@ -1457,7 +1461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>217</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>217</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>217</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>217</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>217</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>217</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>217</v>
       </c>
@@ -1560,14 +1564,11 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>217</v>
       </c>
@@ -1581,41 +1582,44 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>217</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>217</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="F32" t="s">
         <v>49</v>
       </c>
-      <c r="F32" t="s">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>217</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>217</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>217</v>
       </c>
@@ -1628,11 +1632,8 @@
       <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="F34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>217</v>
       </c>
@@ -1646,10 +1647,10 @@
         <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>217</v>
       </c>
@@ -1662,8 +1663,11 @@
       <c r="D36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>217</v>
       </c>
@@ -1676,11 +1680,8 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>217</v>
       </c>
@@ -1694,10 +1695,10 @@
         <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>217</v>
       </c>
@@ -1711,10 +1712,10 @@
         <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>217</v>
       </c>
@@ -1728,10 +1729,10 @@
         <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>217</v>
       </c>
@@ -1745,10 +1746,10 @@
         <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>217</v>
       </c>
@@ -1761,8 +1762,11 @@
       <c r="D42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>217</v>
       </c>
@@ -1775,113 +1779,127 @@
       <c r="D43" t="s">
         <v>60</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>217</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5">
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5">
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5">
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5">
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5">
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5">
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5">
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5">
       <c r="E112" s="1"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5">
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5">
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5">
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5">
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5">
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5">
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5">
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5">
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5">
       <c r="E182" s="1"/>
     </row>
-    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5">
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5">
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5">
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5">
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5">
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5">
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5">
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5">
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5">
       <c r="E654" s="1"/>
     </row>
-    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:5">
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:5">
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:5">
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:5">
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:5">
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:5">
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:5">
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:5">
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:5">
       <c r="E724" s="1"/>
     </row>
   </sheetData>
